--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/10/seed1/result_data_RandomForest.xlsx
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.636799999999995</v>
+        <v>-6.477499999999993</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.764599999999998</v>
+        <v>-7.468099999999995</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -709,7 +709,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.174500000000002</v>
+        <v>-7.967399999999997</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
